--- a/cal.xlsx
+++ b/cal.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
